--- a/assets/medicine.xlsx
+++ b/assets/medicine.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HospitraX\New folder\Ramchin-Hospital-Management\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24AE8B9-DCCB-4AC8-A373-D235DFB03A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>MEDICINE_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Batch_no(unique)</t>
   </si>
@@ -69,12 +67,27 @@
   </si>
   <si>
     <t>Purchased_date</t>
+  </si>
+  <si>
+    <t>Medicine Name</t>
+  </si>
+  <si>
+    <t>NDC Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category </t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Category </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,75 +407,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="20.36328125" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" customWidth="1"/>
-    <col min="10" max="10" width="17.08984375" customWidth="1"/>
-    <col min="11" max="11" width="24.26953125" customWidth="1"/>
-    <col min="14" max="14" width="13.1796875" customWidth="1"/>
-    <col min="15" max="15" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{E0F97E69-D10D-44D8-9203-FAAD3EECD040}">
+      <formula1>"Tablet,Syrup,Drop,Ointment,Creams,Soap,Other"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
